--- a/projects/6/_2_libs/data.xlsx
+++ b/projects/6/_2_libs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-222-1\projects\6\_2_libs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29663174-FEAA-4517-BEEB-28F991C33BBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A5FBEC-62AE-41A1-8F7D-7C24B71056FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="0" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3984" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Привет мир!</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,15 +349,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1">
         <v>2</v>
